--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-30 21:47:35</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,42 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-31 12:39:51</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-31 12:42:59</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-31 12:47:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,138 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:09:26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:25:22</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:29:34</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:31:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:32:26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:34:26</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:42:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:45:54</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-01 08:59:50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-11-01 09:24:40</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-01 10:01:44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,42 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-11-01 14:39:20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-11-01 15:15:01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-11-01 15:18:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,30 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-11-01 15:22:57</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-11-01 15:28:15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,30 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-11-02 18:08:29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-11-02 18:10:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -992,6 +992,65 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-11-04 10:38:28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 10:38:24&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 22&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;Testing!!!&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -992,6 +992,58 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-11-04 11:01:41</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.7 Celsius&lt;/td&gt;&lt;td&gt;14.0 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.2 Celsius&lt;/td&gt;&lt;td&gt;9.3 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.3 Celsius&lt;/td&gt;&lt;td&gt;9.9 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.12&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;0.8&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.67&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.2 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.9 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.7 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.2 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;-0.1 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.8 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1051,6 +1051,65 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-11-04 10:44:40</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 10:44:36&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 22&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;Testing!!!&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1110,6 +1110,117 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:03:03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.3 Celsius&lt;/td&gt;&lt;td&gt;13.1 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.6 Celsius&lt;/td&gt;&lt;td&gt;10.4 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.0 Celsius&lt;/td&gt;&lt;td&gt;9.8 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.52&lt;/td&gt;&lt;td&gt;light rain&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.25&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.19&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;5.36&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;3.0 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.0 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.0 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.3 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.8 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.4 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:04:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:04:02&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 22&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;Testing!!!&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1221,6 +1221,65 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:18:32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:18:28&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 54&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;getLocationsFromExcel() missing 1 required positional argument: 'default_locations'&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1280,6 +1280,346 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:23:04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:23:00&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 35&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;getRecipienEmails() missing 1 required positional argument: 'administrators'&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:24:08</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:24:04&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 35&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;getRecipienEmails() missing 1 required positional argument: 'administrators'&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:25:13</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:25:09&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 35&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;getRecipienEmails() missing 1 required positional argument: 'administrators'&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:26:17</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:26:13&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 35&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;getRecipienEmails() missing 1 required positional argument: 'administrators'&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:27:39</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.4 Celsius&lt;/td&gt;&lt;td&gt;12.5 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.9 Celsius&lt;/td&gt;&lt;td&gt;10.1 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.0 Celsius&lt;/td&gt;&lt;td&gt;9.7 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.88&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.59&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.43&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.9 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.9 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.3 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.0 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.5 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.6 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:28:43</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.4 Celsius&lt;/td&gt;&lt;td&gt;12.5 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.9 Celsius&lt;/td&gt;&lt;td&gt;10.1 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.1 Celsius&lt;/td&gt;&lt;td&gt;9.2 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.88&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.59&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;5.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.47&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;4.63&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.9 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.9 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.3 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.0 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.7 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.6 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -1620,6 +1620,169 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:32:08</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.4 Celsius&lt;/td&gt;&lt;td&gt;12.5 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.0 Celsius&lt;/td&gt;&lt;td&gt;10.1 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.0 Celsius&lt;/td&gt;&lt;td&gt;9.4 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.88&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;7.6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.51&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;4.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.47&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;4.63&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.9 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.9 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.4 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.2 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.6 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.8 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:33:13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html lang="en"&gt;
+    &lt;head&gt;
+        &lt;meta charset="UTF-8"&gt;
+         &lt;style&gt;
+            body { font-family: Arial, sans-serif; margin: 20px; }
+            h1 { color: #333; }
+            h2 { color: #555; margin-top: 20px; }
+            table { width: 80%; border-collapse: collapse; margin-bottom: 20px; }
+            th, td { border: 1px solid #ddd; padding: 10px; text-align: left; }
+            th { background-color: #f2f2f2; color: #333; }
+            tr:nth-child(even) { background-color: #f9f9f9; }
+            tr:hover { background-color: #ddd; }
+            /* Specific styles for averages */
+            .averages-table {
+                width: 80%;
+                margin-top: 20px;
+                border: 2px solid #007BFF; /* blue border for emphasis */
+            }
+            .averages-table th {
+                background-color: #007BFF; /* blue background for headers */
+                color: white; /* white text for headers */
+                font-weight: bold;
+            }
+            .averages-table td {
+                background-color: #E7F1FF; /* light blue background for data */
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h1&gt;Weather Report&lt;/h1&gt;
+    &lt;h2&gt;Averages:&lt;/h2&gt;
+    &lt;table class="averages-table"&gt;
+    &lt;tr&gt;
+    &lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Keskimääräinen lämpötila&lt;/th&gt;&lt;th&gt;Keskimääräinen tuulen nopeus&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.3 Celsius&lt;/td&gt;&lt;td&gt;13.0 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.0 Celsius&lt;/td&gt;&lt;td&gt;10.1 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.0 Celsius&lt;/td&gt;&lt;td&gt;9.4 m/s&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: OpenWeatherMap&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;1.79&lt;/td&gt;&lt;td&gt;light rain&lt;/td&gt;&lt;td&gt;8.05&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;1.51&lt;/td&gt;&lt;td&gt;moderate rain&lt;/td&gt;&lt;td&gt;4.92&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;1.47&lt;/td&gt;&lt;td&gt;clear sky&lt;/td&gt;&lt;td&gt;4.63&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;h2&gt;Source: Finnish Meteorological Institute&lt;/h2&gt;&lt;table border='1'&gt;&lt;tr&gt;&lt;th&gt;Kaupunki&lt;/th&gt;&lt;th&gt;Lämpötila&lt;/th&gt;&lt;th&gt;Säätila&lt;/th&gt;&lt;th&gt;Tuulen_nopeus&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Helsinki&lt;/td&gt;&lt;td&gt;2.9 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.9 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Espoo&lt;/td&gt;&lt;td&gt;2.4 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;5.2 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Vantaa&lt;/td&gt;&lt;td&gt;0.6 Celsius&lt;/td&gt;&lt;td&gt;Ei merkittäviä sääilmiöitä&lt;/td&gt;&lt;td&gt;4.8 m/s avarage speed measured in the last 10 minutes&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-04 12:50:18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    &lt;!DOCTYPE html&gt;
+    &lt;html&gt;
+    &lt;head&gt;
+        &lt;style&gt;
+            table {
+                font-family: Arial, sans-serif;
+                border-collapse: collapse;
+                width: 100%;
+            }
+            th, td {
+                border: 1px solid #dddddd;
+                text-align: left;
+                padding: 8px;
+            }
+            th {
+                background-color: #f2f2f2;
+            }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+    &lt;h2&gt;Error Log&lt;/h2&gt;
+    &lt;table&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Timestamp&lt;/th&gt;
+            &lt;td&gt;2024-11-04 12:50:14&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Level&lt;/th&gt;
+            &lt;td&gt;High&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Location&lt;/th&gt;
+            &lt;td&gt;tasks.py, line 26&lt;/td&gt;
+        &lt;/tr&gt;
+        &lt;tr&gt;
+            &lt;th&gt;Error Message&lt;/th&gt;
+            &lt;td&gt;Testing!!!&lt;/td&gt;
+        &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;/body&gt;
+    &lt;/html&gt;
+    </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
